--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpellLibrary_TypeScript\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07172733-A9B9-4434-B876-8F5000CB53E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CA535-53EE-40AA-BA6B-BE5181631954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__OriginalData" sheetId="3" r:id="rId1"/>
-    <sheet name="npc_heroes_custom" sheetId="4" r:id="rId2"/>
-    <sheet name="npc_abilities_custom" sheetId="5" r:id="rId3"/>
+    <sheet name="npc_abilities_custom" sheetId="5" r:id="rId2"/>
+    <sheet name="npc_heroes_custom" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1373">
   <si>
     <t>npc_dota_hero_earthshaker</t>
   </si>
@@ -4098,16 +4098,141 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>antimage_blink</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AbilityTextureName</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>antimage_mana_break</t>
+    <t>ability_dummy_thinker</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_abilities/dummy_thinker</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_blink_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_ROOT_DISABLES | DOTA_ABILITY_BEHAVIOR_OVERSHOOT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCastPoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 0.4 0.4 0.4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityManaCost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_Antimage.Blink_out</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_abilities/antimage/antimage_blink_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_blink_range 200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_blink_ts</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCastRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCastRange {
+					"value"					"750 900 1050 1200"
+					"special_bonus_unique_antimage_3"	"+150"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCooldown</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCooldown {
+"value"	 "13.5 11 8.5 6"
+"special_bonus_unique_antimage" "-1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_counterspell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_counterspell_ally</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_mana_void</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_counterspell_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellDispellableType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPELL_DISPELLABLE_YES</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 11 7 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_resistance {
+				"value"			"15 25 35 45"
+				"special_bonus_unique_antimage_4"	"+20"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration 1.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_abilities/antimage/antimage_counterspell_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_counterspell_ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCastGestureSlot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13458,11 +13583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD310FE1-23E8-4C92-89A8-841A98CB6290}">
+  <dimension ref="A1:AE6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="23.4140625" customWidth="1"/>
+    <col min="16" max="16" width="12.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>6</v>
+      </c>
+      <c r="W2" s="2">
+        <v>7</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB2">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD2">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="29" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>SUBSTITUTE(A4,"_ts","")</f>
+        <v>antimage_mana_break</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="168">
+      <c r="A5" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>SUBSTITUTE(A5,"_ts","")</f>
+        <v>antimage_blink</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M5" s="2">
+        <v>45</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="Q5" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="140">
+      <c r="A6" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>SUBSTITUTE(A6,"_ts","")</f>
+        <v>antimage_counterspell</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9EC1D-EB87-46E1-BFBE-5CD6C33FF108}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -13505,170 +13909,23 @@
         <v>1336</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1343</v>
+        <v>1369</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD310FE1-23E8-4C92-89A8-841A98CB6290}">
-  <dimension ref="A1:Y3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4140625" customWidth="1"/>
-    <col min="8" max="8" width="12.9140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1334</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-      <c r="O2" s="2">
-        <v>7</v>
-      </c>
-      <c r="P2">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>9</v>
-      </c>
-      <c r="R2">
-        <v>10</v>
-      </c>
-      <c r="S2" s="2">
-        <v>11</v>
-      </c>
-      <c r="T2">
-        <v>12</v>
-      </c>
-      <c r="U2" s="2">
-        <v>13</v>
-      </c>
-      <c r="V2">
-        <v>14</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>1327</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="29" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>SUBSTITUTE(A3,"_ts","")</f>
-        <v>antimage_mana_break</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>1332</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1333</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpellLibrary_TypeScript\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CA535-53EE-40AA-BA6B-BE5181631954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392FD08B-6DC0-414C-A319-42EE7EA9FF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="__OriginalData" sheetId="3" r:id="rId1"/>
-    <sheet name="npc_abilities_custom" sheetId="5" r:id="rId2"/>
-    <sheet name="npc_heroes_custom" sheetId="4" r:id="rId3"/>
+    <sheet name="npc_abilities_custom" sheetId="5" r:id="rId1"/>
+    <sheet name="npc_heroes_custom" sheetId="4" r:id="rId2"/>
+    <sheet name="__OriginalData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1396">
   <si>
     <t>npc_dota_hero_earthshaker</t>
   </si>
@@ -4172,14 +4173,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>antimage_counterspell</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>antimage_counterspell_ally</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>antimage_mana_void</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4232,6 +4225,105 @@
   </si>
   <si>
     <t>DEFAULT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_counterspell_ally_ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_counterspell_ally_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_abilities/antimage/antimage_counterspell_ally_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityUnitTargetTeam</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_FRIENDLY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityUnitTargetType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGrantedByShard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>duration_illusion 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>outgoing_damage -25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>incoming_damage 100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_mana_overload_ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_mana_overload_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_abilities/antimage/antimage_mana_overload_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_SHOW_IN_GUIDES</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPELL_IMMUNITY_ENEMIES_NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGrantedByScepter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasScepterUpgrade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCharges</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityChargeRestoreTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration 7</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4324,7 +4416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4617,6 +4709,514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD310FE1-23E8-4C92-89A8-841A98CB6290}">
+  <dimension ref="A1:AM8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="25.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="23.4140625" customWidth="1"/>
+    <col min="18" max="18" width="12.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2" s="2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD2">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF2">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="29" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>SUBSTITUTE(A4,"_ts","")</f>
+        <v>antimage_mana_break</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="168">
+      <c r="A5" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>SUBSTITUTE(A5,"_ts","")</f>
+        <v>antimage_blink</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="140">
+      <c r="A6" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>SUBSTITUTE(A6,"_ts","")</f>
+        <v>antimage_counterspell</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>45</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D8" si="0">SUBSTITUTE(A7,"_ts","")</f>
+        <v>antimage_mana_overload</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N7">
+        <v>0.2</v>
+      </c>
+      <c r="O7">
+        <v>45</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AI7">
+        <v>25</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>antimage_counterspell_ally</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="O8">
+        <v>45</v>
+      </c>
+      <c r="P8">
+        <v>600</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9EC1D-EB87-46E1-BFBE-5CD6C33FF108}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X122"/>
   <sheetViews>
@@ -13580,352 +14180,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD310FE1-23E8-4C92-89A8-841A98CB6290}">
-  <dimension ref="A1:AE6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="23.4140625" customWidth="1"/>
-    <col min="16" max="16" width="12.9140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1363</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1334</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1346</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>4</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5</v>
-      </c>
-      <c r="V2">
-        <v>6</v>
-      </c>
-      <c r="W2" s="2">
-        <v>7</v>
-      </c>
-      <c r="X2">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>9</v>
-      </c>
-      <c r="Z2">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>11</v>
-      </c>
-      <c r="AB2">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>13</v>
-      </c>
-      <c r="AD2">
-        <v>14</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="29" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>SUBSTITUTE(A4,"_ts","")</f>
-        <v>antimage_mana_break</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="Q4" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>1332</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="168">
-      <c r="A5" s="2" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f>SUBSTITUTE(A5,"_ts","")</f>
-        <v>antimage_blink</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1349</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>1347</v>
-      </c>
-      <c r="M5" s="2">
-        <v>45</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="Q5" s="2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>1355</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="140">
-      <c r="A6" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f>SUBSTITUTE(A6,"_ts","")</f>
-        <v>antimage_counterspell</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>1372</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>45</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>1366</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9EC1D-EB87-46E1-BFBE-5CD6C33FF108}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpellLibrary_TypeScript\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392FD08B-6DC0-414C-A319-42EE7EA9FF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBEEDE5-5120-4406-B376-FFE123A5C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1408">
   <si>
     <t>npc_dota_hero_earthshaker</t>
   </si>
@@ -4173,10 +4173,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>antimage_mana_void</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>antimage_counterspell_ts</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4324,6 +4320,71 @@
   </si>
   <si>
     <t>duration 7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_mana_void_ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_mana_void_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_abilities/antimage/antimage_mana_void_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_TYPE_ULTIMATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_AOE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_MAGICAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 150 200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCooldown {
+				"value"			"70"
+				"special_bonus_unique_antimage_2"	"-50"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mana_void_damage_per_mana {
+				"value"				"0.8 0.95 1.1"
+				"special_bonus_unique_antimage_6"	"+0.2"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mana_void_ministun {
+				"value"					"0.3"
+				"special_bonus_unique_antimage_8" "+1"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mana_void_aoe_radius {
+				"value"					"500"
+				"special_bonus_unique_antimage_manavoid_aoe"			"+150"
+				"affected_by_aoe_increase"	"1"
+			}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4710,33 +4771,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD310FE1-23E8-4C92-89A8-841A98CB6290}">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="23.4140625" customWidth="1"/>
-    <col min="18" max="18" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="23.4140625" customWidth="1"/>
+    <col min="19" max="19" width="12.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4747,115 +4810,118 @@
         <v>1339</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1318</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1319</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1375</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J2" t="s">
         <v>1320</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1321</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M2" t="s">
         <v>1334</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>1369</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2</v>
       </c>
-      <c r="U2" s="2">
+      <c r="V2" s="2">
         <v>3</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4</v>
       </c>
-      <c r="W2" s="2">
+      <c r="X2" s="2">
         <v>5</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>6</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Z2" s="2">
         <v>7</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>8</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AB2" s="2">
         <v>9</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>10</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AD2" s="2">
         <v>11</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>12</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AF2" s="2">
         <v>13</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>14</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>1393</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>1394</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>1392</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AN2" t="s">
         <v>1379</v>
       </c>
-      <c r="AM2" t="s">
-        <v>1380</v>
-      </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" s="2" t="s">
         <v>1342</v>
       </c>
@@ -4865,8 +4931,9 @@
       <c r="C3" s="2" t="s">
         <v>1343</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:39" ht="29" customHeight="1">
+    <row r="4" spans="1:40" ht="29" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>1316</v>
       </c>
@@ -4876,50 +4943,51 @@
       <c r="C4" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="str">
         <f>SUBSTITUTE(A4,"_ts","")</f>
         <v>antimage_mana_break</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1322</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1323</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1324</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>1325</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="2"/>
+      <c r="T4" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="168">
+    <row r="5" spans="1:40" ht="168">
       <c r="A5" s="2" t="s">
         <v>1344</v>
       </c>
@@ -4929,211 +4997,272 @@
       <c r="C5" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="str">
         <f>SUBSTITUTE(A5,"_ts","")</f>
         <v>antimage_blink</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>45</v>
       </c>
-      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="S5" s="2" t="s">
+      <c r="R5" s="5"/>
+      <c r="T5" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>1355</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="140">
+    <row r="6" spans="1:40" ht="140">
       <c r="A6" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1338</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D6" s="2" t="str">
+        <v>1365</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="str">
         <f>SUBSTITUTE(A6,"_ts","")</f>
         <v>antimage_counterspell</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>1360</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>45</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>45</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="T6" s="5" t="s">
         <v>1363</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="U6" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>1383</v>
-      </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1338</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="str">
+        <f t="shared" ref="E7:E9" si="0">SUBSTITUTE(A7,"_ts","")</f>
+        <v>antimage_mana_overload</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D8" si="0">SUBSTITUTE(A7,"_ts","")</f>
-        <v>antimage_mana_overload</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.2</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>45</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>1395</v>
-      </c>
       <c r="T7" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>3</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>25</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
       </c>
       <c r="AK7">
         <v>1</v>
       </c>
-      <c r="AM7">
+      <c r="AL7">
         <v>1</v>
       </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1338</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D8" s="2" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>antimage_counterspell_ally</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>1376</v>
+      <c r="F8" s="2" t="s">
+        <v>1373</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>1362</v>
+        <v>1375</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>1377</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="O8">
+        <v>1361</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P8">
         <v>45</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>600</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>3</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>1365</v>
-      </c>
       <c r="T8" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>1382</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
       </c>
       <c r="AM8">
         <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="210">
+      <c r="A9" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>antimage_mana_void</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O9">
+        <v>0.3</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q9">
+        <v>600</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>1407</v>
       </c>
     </row>
   </sheetData>
@@ -5147,7 +5276,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5198,16 +5327,16 @@
         <v>1353</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1358</v>
+        <v>1395</v>
       </c>
     </row>
   </sheetData>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpellLibrary_TypeScript\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBEEDE5-5120-4406-B376-FFE123A5C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3705A528-638E-4CB0-8373-FBFB6DE37878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="__OriginalData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1429">
   <si>
     <t>npc_dota_hero_earthshaker</t>
   </si>
@@ -4386,6 +4385,95 @@
 				"affected_by_aoe_increase"	"1"
 			}</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_hero_axe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_berserkers_call_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_abilities/axe/axe_berserkers_call_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_DONT_RESUME_MOVEMENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPELL_IMMUNITY_ENEMIES_YES</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPELL_DISPELLABLE_NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT_DOTA_OVERRIDE_ABILITY_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>17 15 13 11</t>
+  </si>
+  <si>
+    <t>80 90 100 110</t>
+  </si>
+  <si>
+    <t>Hero_Axe.Berserkers_Call</t>
+  </si>
+  <si>
+    <t>radius {
+				"value"							"315"
+				"special_bonus_unique_axe_2"	"+100"
+				"affected_by_aoe_increase"	"1"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus_armor {
+				"value"							"16 19 22 25"
+				"special_bonus_unique_axe_7"	"+10"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration 1.8 2.2 2.6 3.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scepter_cooldown_reduction {
+				"special_bonus_scepter" "+3.0"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_berserkers_call_ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_battle_hunger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_counter_helix</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>generic_hidden</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_culling_blade</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_berserkers_call</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4473,18 +4561,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4771,11 +4865,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD310FE1-23E8-4C92-89A8-841A98CB6290}">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4799,125 +4893,125 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2">
+    <row r="2" spans="1:40" s="5" customFormat="1" ht="42">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1337</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>1339</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>1341</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>1376</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="6" t="s">
         <v>1368</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="6" t="s">
         <v>1326</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="6">
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="5">
         <v>2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="6">
         <v>3</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="5">
         <v>4</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="6">
         <v>5</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="5">
         <v>6</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="6">
         <v>7</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="5">
         <v>8</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="6">
         <v>9</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="5">
         <v>10</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="6">
         <v>11</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="5">
         <v>12</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="6">
         <v>13</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="5">
         <v>14</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="7" t="s">
         <v>1390</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="6" t="s">
         <v>1378</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="5" t="s">
         <v>1379</v>
       </c>
     </row>
@@ -4974,7 +5068,7 @@
       <c r="U4" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="4" t="s">
         <v>1330</v>
       </c>
       <c r="W4" s="2" t="s">
@@ -5019,15 +5113,15 @@
       <c r="P5" s="2">
         <v>45</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
       <c r="T5" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>1355</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="4" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -5070,7 +5164,7 @@
       <c r="R6" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="4" t="s">
         <v>1363</v>
       </c>
       <c r="U6" s="2" t="s">
@@ -5098,7 +5192,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="str">
-        <f t="shared" ref="E7:E9" si="0">SUBSTITUTE(A7,"_ts","")</f>
+        <f t="shared" ref="E7:E10" si="0">SUBSTITUTE(A7,"_ts","")</f>
         <v>antimage_mana_overload</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -5252,17 +5346,74 @@
       <c r="Q9">
         <v>600</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="W9" s="4" t="s">
         <v>1407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="154">
+      <c r="A10" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>axe_berserkers_call</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="O10">
+        <v>0.3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5273,10 +5424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9EC1D-EB87-46E1-BFBE-5CD6C33FF108}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5292,6 +5443,9 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
@@ -5337,6 +5491,29 @@
       </c>
       <c r="H3" s="2" t="s">
         <v>1395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1427</v>
       </c>
     </row>
   </sheetData>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpellLibrary_TypeScript\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3705A528-638E-4CB0-8373-FBFB6DE37878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A844CB4-BC95-4CFD-A45E-6E3F9D8872DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="npc_abilities_custom" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1444">
   <si>
     <t>npc_dota_hero_earthshaker</t>
   </si>
@@ -4472,8 +4472,81 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>axe_berserkers_call</t>
+    <t>axe_battle_hunger_ts</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_abilities/axe/axe_battle_hunger_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_PHYSICAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_Axe.Battle_Hunger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT_DOTA_OVERRIDE_ABILITY_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 15 10 5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 60 70 80</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>700 775 850 925</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration 12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow {
+					"value"			"-11 -19 -27 -35"
+					"special_bonus_unique_axe_6"	"-12"
+				}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_per_second {
+					"value"			"10 15 20 25"
+					"CalculateSpellDamageTooltip" "1"
+				}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor_multiplier {
+					"value"			"1"
+					"special_bonus_unique_axe"	"x2"
+				}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scepter_armor_change {
+					"special_bonus_scepter"				"+7"
+				}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed_bonus {
+					"value"			"0"
+					"special_bonus_unique_axe_8"	"+12"
+				}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_battle_hunger_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4865,11 +4938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD310FE1-23E8-4C92-89A8-841A98CB6290}">
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5370,7 +5443,7 @@
         <v>1410</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(A10,"_ts","")</f>
         <v>axe_berserkers_call</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -5413,6 +5486,81 @@
         <v>1422</v>
       </c>
       <c r="AK10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="140">
+      <c r="A11" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>SUBSTITUTE(A11,"_ts","")</f>
+        <v>axe_battle_hunger</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AK11">
         <v>1</v>
       </c>
     </row>
@@ -5426,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9EC1D-EB87-46E1-BFBE-5CD6C33FF108}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5501,13 +5649,13 @@
         <v>1423</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1425</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>1426</v>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpellLibrary_TypeScript\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A844CB4-BC95-4CFD-A45E-6E3F9D8872DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69AA102-A6F4-48F8-9395-BAB06D5D0531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="npc_abilities_custom" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1459">
   <si>
     <t>npc_dota_hero_earthshaker</t>
   </si>
@@ -4404,6 +4404,9 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
+  </si>
+  <si>
+    <t>SPELL_IMMUNITY_ENEMIES_YES</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4546,6 +4549,75 @@
   </si>
   <si>
     <t>axe_battle_hunger_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_counter_helix_ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_counter_helix_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_abilities/axe/axe_counter_helix_ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_PURE</t>
+  </si>
+  <si>
+    <t>Hero_Axe.CounterHelix</t>
+  </si>
+  <si>
+    <t>HasShardUpgrade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage {
+				"value"				"95 120 145 170"
+				"special_bonus_unique_axe_4" "+30"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius {
+				"value"						"300"
+				"affected_by_aoe_increase"	"1"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger_attacks 7 6 5 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCooldown {
+				"value"					"0.3"
+				"special_bonus_shard"	"-0.3"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shard_debuff_duration {
+				"special_bonus_shard"		"+6.0"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shard_damage_reduction {
+				"special_bonus_shard"		"+15"
+			}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shard_max_stacks {
+				"special_bonus_shard"		"+6"	
+			}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4938,11 +5010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD310FE1-23E8-4C92-89A8-841A98CB6290}">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4960,13 +5032,13 @@
     <col min="19" max="19" width="12.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="2" t="s">
         <v>1317</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" ht="42">
+    <row r="2" spans="1:41" s="5" customFormat="1" ht="42">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5079,16 +5151,19 @@
         <v>1391</v>
       </c>
       <c r="AL2" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AM2" s="7" t="s">
         <v>1390</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>1378</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" s="2" t="s">
         <v>1342</v>
       </c>
@@ -5100,7 +5175,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:40" ht="29" customHeight="1">
+    <row r="4" spans="1:41" ht="29" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>1316</v>
       </c>
@@ -5154,7 +5229,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="168">
+    <row r="5" spans="1:41" ht="168">
       <c r="A5" s="2" t="s">
         <v>1344</v>
       </c>
@@ -5198,7 +5273,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="140">
+    <row r="6" spans="1:41" ht="140">
       <c r="A6" s="2" t="s">
         <v>1358</v>
       </c>
@@ -5253,7 +5328,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" s="2" t="s">
         <v>1384</v>
       </c>
@@ -5310,14 +5385,14 @@
       <c r="AK7">
         <v>1</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" s="2" t="s">
         <v>1371</v>
       </c>
@@ -5368,14 +5443,14 @@
       <c r="W8" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
       <c r="AN8">
         <v>1</v>
       </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" ht="210">
+    <row r="9" spans="1:41" ht="210">
       <c r="A9" s="2" t="s">
         <v>1396</v>
       </c>
@@ -5432,7 +5507,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="154">
+    <row r="10" spans="1:41" ht="154">
       <c r="A10" s="2" t="s">
         <v>1409</v>
       </c>
@@ -5450,64 +5525,64 @@
         <v>1411</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="K10" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="N10" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="O10">
         <v>0.3</v>
       </c>
       <c r="P10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R10" t="s">
         <v>1417</v>
       </c>
-      <c r="R10" t="s">
-        <v>1416</v>
-      </c>
       <c r="T10" s="4" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AK10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="140">
+    <row r="11" spans="1:41" ht="140">
       <c r="A11" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1338</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>SUBSTITUTE(A11,"_ts","")</f>
         <v>axe_battle_hunger</v>
       </c>
       <c r="F11" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1387</v>
@@ -5519,13 +5594,13 @@
         <v>1389</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>1361</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>1369</v>
@@ -5534,33 +5609,84 @@
         <v>0.3</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>1434</v>
-      </c>
       <c r="T11" s="4" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AK11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="126">
+      <c r="A12" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>SUBSTITUTE(A12,"_ts","")</f>
+        <v>axe_counter_helix</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1450</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AL12">
         <v>1</v>
       </c>
     </row>
@@ -5574,8 +5700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9EC1D-EB87-46E1-BFBE-5CD6C33FF108}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5592,7 +5718,7 @@
     <row r="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5646,22 +5772,22 @@
         <v>1408</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>1428</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1427</v>
       </c>
     </row>
   </sheetData>
